--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/97/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/97/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4154154154154154</v>
+        <v>0.0265026502650265</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1717.717717717718</v>
+        <v>1171.897189718972</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09359359359359359</v>
+        <v>0.02703270327032703</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3223223223223223</v>
+        <v>0.0146014601460146</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302.3023023023023</v>
+        <v>175.8175817581758</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>771.7717717717718</v>
+        <v>390.7290729072907</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.4384384384385</v>
+        <v>777.5004500450044</v>
       </c>
     </row>
   </sheetData>
